--- a/Stocks/RAMCOCEM.xlsx
+++ b/Stocks/RAMCOCEM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>685.63333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>688.34772566540846</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>673.68313764804896</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>70.035066509419323</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>10.799999999999955</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>29.25</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.3692307692307677</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>687.85628061094167</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-4.7974242367303077</v>
       </c>
       <c r="Y67">
         <v>-4.9886853123174628</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>666</v>
+      </c>
+      <c r="D83">
+        <v>684.55</v>
+      </c>
+      <c r="E83">
+        <v>663</v>
+      </c>
+      <c r="F83">
+        <v>675.05</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>674.19999999999993</v>
+      </c>
+      <c r="H83">
+        <v>670.58675050444026</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>681.8003720868179</v>
+      </c>
+      <c r="K83">
+        <v>664.66633276837695</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>55.223817133170286</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>12.049999999999955</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>21.549999999999955</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.55916473317865334</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>673.14957761445419</v>
+      </c>
+      <c r="W83">
+        <v>678.43810129787744</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.2885236834232501</v>
+      </c>
+      <c r="Y83">
+        <v>-4.5491434534964768</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>679.85</v>
+      </c>
+      <c r="D84">
+        <v>692.95</v>
+      </c>
+      <c r="E84">
+        <v>675.95</v>
+      </c>
+      <c r="F84">
+        <v>681.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>683.36666666666679</v>
+      </c>
+      <c r="H84">
+        <v>676.97670858555352</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>684.27806717863621</v>
+      </c>
+      <c r="K84">
+        <v>667.17381437540428</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>62.393228677681833</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.25</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.30882352941176472</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>674.38810413530734</v>
+      </c>
+      <c r="W84">
+        <v>678.64268638692351</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-4.2545822516161707</v>
+      </c>
+      <c r="Y84">
+        <v>-4.4902312131204152</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>691</v>
+      </c>
+      <c r="D85">
+        <v>714.65</v>
+      </c>
+      <c r="E85">
+        <v>689</v>
+      </c>
+      <c r="F85">
+        <v>690.35</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>698</v>
+      </c>
+      <c r="H85">
+        <v>687.48835429277676</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>691.02738558338376</v>
+      </c>
+      <c r="K85">
+        <v>672.02407784753666</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>71.022181927864807</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.3500000000000227</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>25.649999999999977</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>5.2631578947369355E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>676.84378042218316</v>
+      </c>
+      <c r="W85">
+        <v>679.50989480270698</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2.6661143805238225</v>
+      </c>
+      <c r="Y85">
+        <v>-4.1254078466010968</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>687.2</v>
+      </c>
+      <c r="D86">
+        <v>698.15</v>
+      </c>
+      <c r="E86">
+        <v>682.1</v>
+      </c>
+      <c r="F86">
+        <v>690</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>690.08333333333337</v>
+      </c>
+      <c r="H86">
+        <v>688.78584381305507</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>692.61018878707625</v>
+      </c>
+      <c r="K86">
+        <v>674.26317165919522</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>70.251448292850299</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.49221183800623053</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>678.86781420338571</v>
+      </c>
+      <c r="W86">
+        <v>680.28693963213607</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.4191254287503625</v>
+      </c>
+      <c r="Y86">
+        <v>-3.5841513630309501</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>694.5</v>
+      </c>
+      <c r="D87">
+        <v>698.75</v>
+      </c>
+      <c r="E87">
+        <v>689.1</v>
+      </c>
+      <c r="F87">
+        <v>694</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>693.94999999999993</v>
+      </c>
+      <c r="H87">
+        <v>691.3679219065275</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>693.97459127883712</v>
+      </c>
+      <c r="K87">
+        <v>677.56024462381856</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>74.244319410110009</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>9.6499999999999773</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.50777202072538741</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>681.19584278748016</v>
+      </c>
+      <c r="W87">
+        <v>681.30272188160745</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.10687909412729368</v>
+      </c>
+      <c r="Y87">
+        <v>-2.8886969092502186</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>687.05</v>
+      </c>
+      <c r="D88">
+        <v>701</v>
+      </c>
+      <c r="E88">
+        <v>682.2</v>
+      </c>
+      <c r="F88">
+        <v>695</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>692.73333333333323</v>
+      </c>
+      <c r="H88">
+        <v>692.05062761993031</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>695.53579321687334</v>
+      </c>
+      <c r="K88">
+        <v>678.59130137408113</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>75.281126965909735</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>18.799999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.68085106382978644</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>683.31955928171396</v>
+      </c>
+      <c r="W88">
+        <v>682.31733507556248</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>1.0022242061514817</v>
+      </c>
+      <c r="Y88">
+        <v>-2.1105126861698786</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>697.35</v>
+      </c>
+      <c r="D89">
+        <v>729.95</v>
+      </c>
+      <c r="E89">
+        <v>696.75</v>
+      </c>
+      <c r="F89">
+        <v>729.35</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>718.68333333333339</v>
+      </c>
+      <c r="H89">
+        <v>705.36698047663185</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>703.18339472423486</v>
+      </c>
+      <c r="K89">
+        <v>682.62656773539641</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>90.940390801728597</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>32.600000000000023</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>33.200000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.98192771084337283</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>690.40116554606561</v>
+      </c>
+      <c r="W89">
+        <v>685.80123618107632</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>4.5999293649892934</v>
+      </c>
+      <c r="Y89">
+        <v>-0.76842427593804419</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>700.55000000000007</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>709.45</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>713.35</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>717.25</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>734.9</v>
+      </c>
+      <c r="D90">
+        <v>737.95</v>
+      </c>
+      <c r="E90">
+        <v>716.3</v>
+      </c>
+      <c r="F90">
+        <v>716.85</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>723.69999999999993</v>
+      </c>
+      <c r="H90">
+        <v>714.53349023831584</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>710.90930700773822</v>
+      </c>
+      <c r="K90">
+        <v>690.10955268308612</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>70.597041332922288</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.55000000000006821</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>21.650000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>2.5404157043882953E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>694.4702170005171</v>
+      </c>
+      <c r="W90">
+        <v>688.10114461210776</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>6.3690723884093359</v>
+      </c>
+      <c r="Y90">
+        <v>0.65907505693143187</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>726.45</v>
+      </c>
+      <c r="D91">
+        <v>732.3</v>
+      </c>
+      <c r="E91">
+        <v>722.7</v>
+      </c>
+      <c r="F91">
+        <v>730.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>728.5</v>
+      </c>
+      <c r="H91">
+        <v>721.51674511915792</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>715.66279433935199</v>
+      </c>
+      <c r="K91">
+        <v>697.35187430906694</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>77.475042863274552</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>7.7999999999999545</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>9.5999999999999091</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.812500000000003</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>700.01326053889909</v>
+      </c>
+      <c r="W91">
+        <v>691.24180056676641</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>8.7714599721326749</v>
+      </c>
+      <c r="Y91">
+        <v>2.2815520399716807</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>723.80000000000007</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>726.35</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>727.5</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>728.65000000000009</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>738</v>
+      </c>
+      <c r="D92">
+        <v>738</v>
+      </c>
+      <c r="E92">
+        <v>715.3</v>
+      </c>
+      <c r="F92">
+        <v>721</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>724.76666666666677</v>
+      </c>
+      <c r="H92">
+        <v>723.14170589291234</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>720.626617819496</v>
+      </c>
+      <c r="K92">
+        <v>701.3403466848298</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>64.374580755253092</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>22.700000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.25110132158590459</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>703.2419896867608</v>
+      </c>
+      <c r="W92">
+        <v>693.44611163589479</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>9.7958780508660084</v>
+      </c>
+      <c r="Y92">
+        <v>3.7844172421505462</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>730</v>
+      </c>
+      <c r="D93">
+        <v>743.5</v>
+      </c>
+      <c r="E93">
+        <v>725.15</v>
+      </c>
+      <c r="F93">
+        <v>738.25</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>735.63333333333333</v>
+      </c>
+      <c r="H93">
+        <v>729.38751961312278</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>725.70959163738576</v>
+      </c>
+      <c r="K93">
+        <v>706.63138075486756</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>74.255292986696446</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>13.100000000000023</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>18.350000000000023</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.7138964577656679</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>708.62783742725912</v>
+      </c>
+      <c r="W93">
+        <v>696.76491818138402</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>11.862919245875105</v>
+      </c>
+      <c r="Y93">
+        <v>5.4001176428954576</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>739.2</v>
+      </c>
+      <c r="D94">
+        <v>749</v>
+      </c>
+      <c r="E94">
+        <v>734.8</v>
+      </c>
+      <c r="F94">
+        <v>742.3</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>742.0333333333333</v>
+      </c>
+      <c r="H94">
+        <v>735.71042647322804</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>730.88523794018897</v>
+      </c>
+      <c r="K94">
+        <v>712.89107392045253</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>76.193085675182388</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>14.200000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.52816901408450534</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>713.80817013075773</v>
+      </c>
+      <c r="W94">
+        <v>700.13788720498519</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>13.67028292577254</v>
+      </c>
+      <c r="Y94">
+        <v>7.054150699470874</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>742.9</v>
+      </c>
+      <c r="D95">
+        <v>764.35</v>
+      </c>
+      <c r="E95">
+        <v>741.25</v>
+      </c>
+      <c r="F95">
+        <v>744</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>749.86666666666667</v>
+      </c>
+      <c r="H95">
+        <v>742.78854656994736</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>738.32185173125811</v>
+      </c>
+      <c r="K95">
+        <v>719.19305749368527</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>77.097577593576204</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>23.100000000000023</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.11904761904761893</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>718.45306703371807</v>
+      </c>
+      <c r="W95">
+        <v>703.38693259720856</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>15.066134436509515</v>
+      </c>
+      <c r="Y95">
+        <v>8.6565474468786014</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>747.55</v>
+      </c>
+      <c r="D96">
+        <v>755.3</v>
+      </c>
+      <c r="E96">
+        <v>738.1</v>
+      </c>
+      <c r="F96">
+        <v>753.55</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>748.98333333333323</v>
+      </c>
+      <c r="H96">
+        <v>745.88593995164024</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>742.0947735687563</v>
+      </c>
+      <c r="K96">
+        <v>723.39460027286634</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>81.92086983599259</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>15.449999999999932</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>17.199999999999932</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.89825581395348797</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>723.85259518237683</v>
+      </c>
+      <c r="W96">
+        <v>707.10271536778566</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>16.749879814591168</v>
+      </c>
+      <c r="Y96">
+        <v>10.275213920421114</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>740.05000000000007</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>744.65000000000009</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>746.7</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>748.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>733</v>
+      </c>
+      <c r="D97">
+        <v>765.05</v>
+      </c>
+      <c r="E97">
+        <v>733</v>
+      </c>
+      <c r="F97">
+        <v>749.4</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>749.15</v>
+      </c>
+      <c r="H97">
+        <v>747.51796997582005</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>747.19593499792154</v>
+      </c>
+      <c r="K97">
+        <v>725.52913354556267</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>73.51134837736258</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>16.399999999999977</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>32.049999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.51170046801872071</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>727.78296515431884</v>
+      </c>
+      <c r="W97">
+        <v>710.23584756276455</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>17.547117591554297</v>
+      </c>
+      <c r="Y97">
+        <v>11.729594654647752</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>751.1</v>
+      </c>
+      <c r="D98">
+        <v>758.2</v>
+      </c>
+      <c r="E98">
+        <v>748</v>
+      </c>
+      <c r="F98">
+        <v>749.95</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>752.05000000000007</v>
+      </c>
+      <c r="H98">
+        <v>749.78398498791012</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>749.64128277616123</v>
+      </c>
+      <c r="K98">
+        <v>730.52265942432655</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>73.954281016818868</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>10.200000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.19117647058823889</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>731.19327820750061</v>
+      </c>
+      <c r="W98">
+        <v>713.17763663218943</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>18.015641575311179</v>
+      </c>
+      <c r="Y98">
+        <v>12.986804038780438</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>750</v>
+      </c>
+      <c r="D99">
+        <v>754.4</v>
+      </c>
+      <c r="E99">
+        <v>730.5</v>
+      </c>
+      <c r="F99">
+        <v>732.45</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>739.11666666666679</v>
+      </c>
+      <c r="H99">
+        <v>744.45032582728845</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>750.69877549256989</v>
+      </c>
+      <c r="K99">
+        <v>730.51762399669838</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>44.415287942225383</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>23.899999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>8.1589958158997791E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>731.38662002173135</v>
+      </c>
+      <c r="W99">
+        <v>714.60521910387911</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>16.781400917852238</v>
+      </c>
+      <c r="Y99">
+        <v>13.745723414594798</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>738.7</v>
+      </c>
+      <c r="D100">
+        <v>740</v>
+      </c>
+      <c r="E100">
+        <v>725</v>
+      </c>
+      <c r="F100">
+        <v>734.85</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>733.2833333333333</v>
+      </c>
+      <c r="H100">
+        <v>738.86682958031088</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>748.32126982755437</v>
+      </c>
+      <c r="K100">
+        <v>729.29148533076545</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>47.97740038401389</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.65666666666666818</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>731.91944771069575</v>
+      </c>
+      <c r="W100">
+        <v>716.10483250359175</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>15.814615207103998</v>
+      </c>
+      <c r="Y100">
+        <v>14.159501773096638</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>738.55</v>
+      </c>
+      <c r="D101">
+        <v>738.85</v>
+      </c>
+      <c r="E101">
+        <v>716.4</v>
+      </c>
+      <c r="F101">
+        <v>719.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>725.05000000000007</v>
+      </c>
+      <c r="H101">
+        <v>731.95841479015553</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>746.21654319920901</v>
+      </c>
+      <c r="K101">
+        <v>726.42671081281753</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>32.006475158418873</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>22.450000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.15590200445434266</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>730.07030190905027</v>
+      </c>
+      <c r="W101">
+        <v>716.38595602184421</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>13.684345887206064</v>
+      </c>
+      <c r="Y101">
+        <v>14.064470595918523</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>719.9</v>
+      </c>
+      <c r="D102">
+        <v>728.25</v>
+      </c>
+      <c r="E102">
+        <v>701.1</v>
+      </c>
+      <c r="F102">
+        <v>703.45</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>710.93333333333339</v>
+      </c>
+      <c r="H102">
+        <v>721.44587406174446</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>742.22397804382922</v>
+      </c>
+      <c r="K102">
+        <v>720.79855285441363</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>21.954496336718499</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.3500000000000227</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>27.149999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>8.6556169429098509E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>725.97487084611942</v>
+      </c>
+      <c r="W102">
+        <v>715.42773705726313</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>10.547133788856286</v>
+      </c>
+      <c r="Y102">
+        <v>13.361003234506075</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>709.9</v>
+      </c>
+      <c r="D103">
+        <v>714.4</v>
+      </c>
+      <c r="E103">
+        <v>686</v>
+      </c>
+      <c r="F103">
+        <v>704.25</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>701.55000000000007</v>
+      </c>
+      <c r="H103">
+        <v>711.49793703087221</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>736.04087181186719</v>
+      </c>
+      <c r="K103">
+        <v>713.06554110898833</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.416614180351552</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>18.25</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>28.399999999999977</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.64260563380281743</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>722.63258302363954</v>
+      </c>
+      <c r="W103">
+        <v>714.59975653450294</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>8.0328264891365961</v>
+      </c>
+      <c r="Y103">
+        <v>12.29536788543218</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>713.95</v>
+      </c>
+      <c r="D104">
+        <v>713.95</v>
+      </c>
+      <c r="E104">
+        <v>691.1</v>
+      </c>
+      <c r="F104">
+        <v>695.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>700.18333333333339</v>
+      </c>
+      <c r="H104">
+        <v>705.8406351821028</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>731.13178918700783</v>
+      </c>
+      <c r="K104">
+        <v>708.18430975143542</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>18.641853058228282</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>22.850000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.19256017505470341</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>718.4583394815412</v>
+      </c>
+      <c r="W104">
+        <v>713.18495975416943</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>5.2733797273717755</v>
+      </c>
+      <c r="Y104">
+        <v>10.890970253820099</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>711.35</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>705.2</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>702.55000000000007</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>699.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>701.85</v>
+      </c>
+      <c r="D105">
+        <v>704.8</v>
+      </c>
+      <c r="E105">
+        <v>688</v>
+      </c>
+      <c r="F105">
+        <v>690</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>694.26666666666677</v>
+      </c>
+      <c r="H105">
+        <v>700.05365092438478</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>725.28028047878388</v>
+      </c>
+      <c r="K105">
+        <v>703.69890758444978</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>16.067641012940001</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>16.799999999999955</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.11904761904761937</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>714.08013340745799</v>
+      </c>
+      <c r="W105">
+        <v>711.46755532793463</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>2.6125780795233595</v>
+      </c>
+      <c r="Y105">
+        <v>9.23529181896075</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>702.90000000000009</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>698.40000000000009</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>694.40000000000009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>690.8</v>
+      </c>
+      <c r="D106">
+        <v>697.8</v>
+      </c>
+      <c r="E106">
+        <v>673.05</v>
+      </c>
+      <c r="F106">
+        <v>674.3</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>681.71666666666658</v>
+      </c>
+      <c r="H106">
+        <v>690.88515879552574</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>719.17355148349861</v>
+      </c>
+      <c r="K106">
+        <v>696.8880392323498</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>10.76398541784109</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>24.75</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>707.96011288323371</v>
+      </c>
+      <c r="W106">
+        <v>708.71440308142098</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-0.75429019818727738</v>
+      </c>
+      <c r="Y106">
+        <v>7.2373754155311447</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>695</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>688.35</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>685.40000000000009</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>682.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>681</v>
+      </c>
+      <c r="D107">
+        <v>697.75</v>
+      </c>
+      <c r="E107">
+        <v>680</v>
+      </c>
+      <c r="F107">
+        <v>694</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>690.58333333333337</v>
+      </c>
+      <c r="H107">
+        <v>690.7342460644295</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>714.41276226494335</v>
+      </c>
+      <c r="K107">
+        <v>693.13514162516094</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>41.2041249766257</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.75</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.78873239436619713</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>705.81240320889003</v>
+      </c>
+      <c r="W107">
+        <v>707.62444729761205</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.8120440887220184</v>
+      </c>
+      <c r="Y107">
+        <v>5.4274915146805123</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
